--- a/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-1,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-10,63%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,76%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,3</t>
+          <t>-3,93; 3,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 5,23</t>
+          <t>-4,17; 4,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,87</t>
+          <t>-4,49; 3,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 5,25</t>
+          <t>-3,06; 5,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 4,25</t>
+          <t>-9,03; 5,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 25,37</t>
+          <t>-5,28; 1,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 44,73</t>
+          <t>-0,27; 7,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 28,52</t>
+          <t>-23,74; 29,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 45,7</t>
+          <t>-24,26; 36,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 9,7</t>
+          <t>-23,71; 28,72</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 44,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,87; 28,79</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-29,63; 13,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 52,45</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 6,41</t>
+          <t>-3,3; 6,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 6,9</t>
+          <t>-4,36; 7,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 6,7</t>
+          <t>-2,16; 7,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 7,87</t>
+          <t>-2,17; 7,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 20,71</t>
+          <t>-0,71; 11,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 51,58</t>
+          <t>-3,49; 9,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 54,08</t>
+          <t>-7,99; 7,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 50,79</t>
+          <t>-18,53; 54,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 65,12</t>
+          <t>-23,29; 63,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 71,8</t>
+          <t>-11,75; 61,53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 60,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 70,53</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-21,13; 88,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; 43,79</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-12,45</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-5,62%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>-5,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>-27,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-5,46%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-46,79%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 7,77</t>
+          <t>-14,69; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 5,33</t>
+          <t>-21,42; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 8,91</t>
+          <t>-11,62; 8,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 6,77</t>
+          <t>-14,18; 6,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-31,55; -0,62</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-59,13; 93,56</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,75; 55,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,31; 116,72</t>
+          <t>-61,23; 85,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 86,77</t>
+          <t>-71,74; 45,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-55,55; 91,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-64,84; 95,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-75,56; -3,55</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,39</t>
+          <t>-2,7; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,49</t>
+          <t>-3,55; 3,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,62</t>
+          <t>-2,02; 4,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,88</t>
+          <t>-1,1; 4,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 5,2</t>
+          <t>-4,55; 4,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 24,47</t>
+          <t>-3,97; 2,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 26,37</t>
+          <t>-0,95; 6,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 26,42</t>
+          <t>-15,09; 26,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 40,23</t>
+          <t>-18,77; 27,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 11,83</t>
+          <t>-11,9; 30,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 39,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; 24,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,55; 19,46</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 40,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,07%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-1,51%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>12,93%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-10,63%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>21,76%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1639219339543196</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6566837935504555</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3473663018587675</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.693469622765459</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.320671446912027</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.641292888476922</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>3.900407534358433</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.01073619907906675</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.04449324878943928</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.02161854502294278</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1251503365989977</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.01469793220270678</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.1062746047779589</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.2279145784355031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 3,92</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 4,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 3,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 5,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; 5,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 1,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 7,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-23,74; 29,39</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-24,26; 36,94</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-23,71; 28,72</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 44,87</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-31,87; 28,79</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-29,63; 13,57</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 52,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.927728870954782</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.266205103346389</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.578940131899705</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.099546315629453</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-9.243819054863614</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.277636665218234</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.09603349902046429</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2373872626978483</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2453237993456732</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2437497345023389</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.189955992070105</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3231861013379348</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.2963256119772193</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.006786112185866581</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.92169023687132</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.822465590663583</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.727094663526522</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.170067938906932</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.073263936109348</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.739049410057819</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>7.901908157562534</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2938633820516993</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3885070372505026</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2787030535950824</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.439898877315069</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2805749347844306</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.1357255163206069</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5319940947421667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,23%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>17,95%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>21,02%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>27,98%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>24,14%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-1,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 6,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 7,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 7,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 7,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 11,91</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 9,85</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 7,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-18,53; 54,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-23,29; 63,76</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 61,53</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-12,31; 60,14</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 70,53</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-21,13; 88,89</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-34,38; 43,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.83319346179821</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.838860337116383</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.377945542886642</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.036728069148906</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.375682422731584</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>3.41128234833227</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1982264639823594</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1222712476390824</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1145967456776169</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1507588395607907</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.2034443680653601</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.2762793311509408</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.2414263465292745</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.009969590659978522</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,45</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-5,69%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-27,13%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-5,46%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-46,79%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.295169822221568</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.409198034066375</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.126513498068094</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.089916374120009</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.598797268762658</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-3.491620038425177</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-7.956299103896071</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1852810244818248</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.263775663907963</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1656460584347255</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1235739510984629</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.02734436767454148</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.211270100428999</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.3378361586026062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; 7,39</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 4,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,62; 8,1</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 6,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-31,55; -0,62</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-61,23; 85,36</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-71,74; 45,95</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-55,55; 91,52</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-64,84; 95,17</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-75,56; -3,55</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.795575087642352</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.473186960221247</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.126291979619642</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.336820211559665</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.33695816568533</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>9.853216504345564</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>7.469940839358538</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5489996609203747</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5948359263444256</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.564722870992542</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.6054852054750713</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6815685926980751</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.8889025176805538</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.4477908324510286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>14,12%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.8268022082051157</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.593341058909601</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6714757133743005</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1414256223479807</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-12.54264301480512</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.05694515646606339</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3120689310695178</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.0499500624557834</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.01161009590731739</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.4715685875568376</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 3,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 3,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 4,04</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 4,7</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 4,73</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 2,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 6,23</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-15,09; 26,27</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-18,77; 27,89</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-11,9; 30,24</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 39,46</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-18,17; 24,96</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; 19,46</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 40,6</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.69311253599335</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.68525961569588</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.818023273428549</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.8010944166437</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-32.60117153387665</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.6123469591603135</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7269199545639247</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5184197571467949</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.6296457352077712</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.7614470841643681</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.385282788797701</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.119777227956023</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.106653790013247</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.176724526288479</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.7092234061152016</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.8535981804250726</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.408561953213843</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9366088814776642</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.078460424839234</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>-0.04099074197948063</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.5494906276280354</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3470370515010812</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.83526395787831</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.981251759567024</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4906365534700613</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.5182615397754275</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>2.924267518609339</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03647298162568608</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.02215616394041319</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.05345114539790016</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.1422763244030842</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.02287018754898682</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.03425713321081281</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.1643444309048827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.703024456955533</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.646533924918387</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.253301069403641</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.139484308741073</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.618867306752619</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-3.969028866575839</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.797698896246953</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1509410322310861</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1993355167011747</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.128160569545151</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.07282228898321474</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1878063082616805</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.2355244015983417</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.04434561154346603</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.403399234519334</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.594070805586487</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.896064768399295</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.684067429813169</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.544241457081831</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.52430926718562</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>6.382883460168791</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2627083128152859</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2633589814043594</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2845768670016479</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3961279424106724</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2362589499236936</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.1945753001933476</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.4185164047461579</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
